--- a/NformTester/NformTester/keywordscripts/TST2753_DisabledForGlobalStatusPolling.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST2753_DisabledForGlobalStatusPolling.xlsx
@@ -3880,10 +3880,6 @@
     <t>SingleManual</t>
   </si>
   <si>
-    <t>10.146.88.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"Description for GXT"</t>
   </si>
   <si>
@@ -3940,10 +3936,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>10.146.88.10:163</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$GXT_ChangeData$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3980,10 +3972,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"ABC GXT UPS"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>;Verify that:Nform will not polling the status for that device. The status of the UPS should not change to Alarm.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4005,6 +3993,18 @@
   </si>
   <si>
     <t>Pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMPdevice_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$GXT_0_NAME$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$GXT_Ip_Port$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4527,7 +4527,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4707,7 +4709,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -4749,7 +4751,7 @@
         <v>823</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C8" s="4">
         <v>7</v>
@@ -4768,19 +4770,19 @@
         <v>858</v>
       </c>
       <c r="I8" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>859</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>885</v>
-      </c>
-      <c r="K8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>860</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>861</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>862</v>
       </c>
       <c r="N8" s="14"/>
     </row>
@@ -4795,7 +4797,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -4852,7 +4854,7 @@
         <v>27</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -4911,7 +4913,7 @@
         <v>3</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -4957,10 +4959,10 @@
         <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
+        <v>865</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>866</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>867</v>
       </c>
       <c r="F15" s="4">
         <v>2</v>
@@ -4983,7 +4985,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="4"/>
@@ -5103,10 +5105,10 @@
         <v>7</v>
       </c>
       <c r="H20" s="9" t="s">
+        <v>867</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>868</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>869</v>
       </c>
       <c r="J20" s="4" t="b">
         <v>1</v>
@@ -5197,7 +5199,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="4"/>
@@ -5245,10 +5247,10 @@
         <v>19</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="4"/>
@@ -5275,7 +5277,7 @@
         <v>56</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -5385,10 +5387,10 @@
         <v>31</v>
       </c>
       <c r="D32" s="6" t="s">
+        <v>865</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>866</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>867</v>
       </c>
       <c r="F32" s="4">
         <v>1</v>
@@ -5407,7 +5409,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="4"/>
@@ -5425,7 +5427,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>814</v>
@@ -5433,13 +5435,13 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="9" t="s">
-        <v>875</v>
+        <v>891</v>
       </c>
       <c r="I34" s="9">
         <v>1</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
@@ -5451,10 +5453,10 @@
         <v>34</v>
       </c>
       <c r="D35" s="6" t="s">
+        <v>865</v>
+      </c>
+      <c r="E35" s="9" t="s">
         <v>866</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>867</v>
       </c>
       <c r="F35" s="4">
         <v>30</v>
@@ -5473,7 +5475,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -5500,7 +5502,7 @@
         <v>27</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
@@ -5527,7 +5529,7 @@
         <v>61</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="4"/>
@@ -5541,10 +5543,10 @@
         <v>38</v>
       </c>
       <c r="D39" s="6" t="s">
+        <v>865</v>
+      </c>
+      <c r="E39" s="9" t="s">
         <v>866</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>867</v>
       </c>
       <c r="F39" s="4">
         <v>2</v>
@@ -5563,7 +5565,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="4"/>
@@ -5617,7 +5619,7 @@
         <v>3</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -5655,10 +5657,10 @@
         <v>43</v>
       </c>
       <c r="D44" s="6" t="s">
+        <v>865</v>
+      </c>
+      <c r="E44" s="9" t="s">
         <v>866</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>867</v>
       </c>
       <c r="F44" s="4">
         <v>1</v>
@@ -5677,7 +5679,7 @@
         <v>44</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>814</v>
@@ -5685,13 +5687,13 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="9" t="s">
-        <v>875</v>
+        <v>891</v>
       </c>
       <c r="I45" s="9">
         <v>1</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
@@ -5703,10 +5705,10 @@
         <v>45</v>
       </c>
       <c r="D46" s="6" t="s">
+        <v>865</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>866</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>867</v>
       </c>
       <c r="F46" s="4">
         <v>30</v>
@@ -5725,7 +5727,7 @@
         <v>46</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="4"/>
@@ -5752,7 +5754,7 @@
         <v>27</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
@@ -5779,7 +5781,7 @@
         <v>61</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="4"/>
@@ -5793,10 +5795,10 @@
         <v>49</v>
       </c>
       <c r="D50" s="6" t="s">
+        <v>865</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>866</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>867</v>
       </c>
       <c r="F50" s="4">
         <v>2</v>
@@ -5815,7 +5817,7 @@
         <v>50</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="4"/>
@@ -5917,10 +5919,10 @@
         <v>7</v>
       </c>
       <c r="H55" s="9" t="s">
+        <v>867</v>
+      </c>
+      <c r="I55" s="4" t="s">
         <v>868</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>869</v>
       </c>
       <c r="J55" s="4" t="b">
         <v>1</v>
@@ -6007,7 +6009,7 @@
         <v>58</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
@@ -6034,7 +6036,7 @@
         <v>27</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
@@ -6085,7 +6087,7 @@
         <v>3</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
@@ -6123,10 +6125,10 @@
         <v>63</v>
       </c>
       <c r="D64" s="6" t="s">
+        <v>865</v>
+      </c>
+      <c r="E64" s="9" t="s">
         <v>866</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>867</v>
       </c>
       <c r="F64" s="4">
         <v>2</v>
@@ -6145,7 +6147,7 @@
         <v>64</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="4"/>
@@ -6163,7 +6165,7 @@
         <v>65</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>814</v>
@@ -6171,13 +6173,13 @@
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="9" t="s">
-        <v>875</v>
+        <v>891</v>
       </c>
       <c r="I66" s="9">
         <v>1</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
@@ -6189,10 +6191,10 @@
         <v>66</v>
       </c>
       <c r="D67" s="6" t="s">
+        <v>865</v>
+      </c>
+      <c r="E67" s="9" t="s">
         <v>866</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>867</v>
       </c>
       <c r="F67" s="4">
         <v>30</v>
@@ -6211,7 +6213,7 @@
         <v>67</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
@@ -6238,7 +6240,7 @@
         <v>27</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
@@ -6265,7 +6267,7 @@
         <v>60</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="4"/>
@@ -6279,10 +6281,10 @@
         <v>70</v>
       </c>
       <c r="D71" s="6" t="s">
+        <v>865</v>
+      </c>
+      <c r="E71" s="9" t="s">
         <v>866</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>867</v>
       </c>
       <c r="F71" s="4">
         <v>2</v>
@@ -6301,7 +6303,7 @@
         <v>71</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="4"/>
@@ -6355,7 +6357,7 @@
         <v>3</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
@@ -6393,10 +6395,10 @@
         <v>75</v>
       </c>
       <c r="D76" s="6" t="s">
+        <v>865</v>
+      </c>
+      <c r="E76" s="9" t="s">
         <v>866</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>867</v>
       </c>
       <c r="F76" s="4">
         <v>1</v>
@@ -6415,7 +6417,7 @@
         <v>76</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>814</v>
@@ -6423,13 +6425,13 @@
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
       <c r="H77" s="9" t="s">
-        <v>875</v>
+        <v>891</v>
       </c>
       <c r="I77" s="9">
         <v>1</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
@@ -6441,10 +6443,10 @@
         <v>77</v>
       </c>
       <c r="D78" s="6" t="s">
+        <v>865</v>
+      </c>
+      <c r="E78" s="9" t="s">
         <v>866</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>867</v>
       </c>
       <c r="F78" s="4">
         <v>30</v>
@@ -6463,7 +6465,7 @@
         <v>78</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="4"/>
@@ -6490,7 +6492,7 @@
         <v>27</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
@@ -6517,7 +6519,7 @@
         <v>60</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="4"/>
@@ -6531,10 +6533,10 @@
         <v>81</v>
       </c>
       <c r="D82" s="6" t="s">
+        <v>865</v>
+      </c>
+      <c r="E82" s="9" t="s">
         <v>866</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>867</v>
       </c>
       <c r="F82" s="4">
         <v>2</v>
@@ -6553,7 +6555,7 @@
         <v>82</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E83" s="9"/>
       <c r="F83" s="4"/>
@@ -6641,10 +6643,10 @@
         <v>86</v>
       </c>
       <c r="D87" s="6" t="s">
+        <v>872</v>
+      </c>
+      <c r="E87" s="9" t="s">
         <v>873</v>
-      </c>
-      <c r="E87" s="9" t="s">
-        <v>874</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>633</v>
@@ -6653,7 +6655,7 @@
         <v>3</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
@@ -6667,10 +6669,10 @@
         <v>87</v>
       </c>
       <c r="D88" s="6" t="s">
+        <v>872</v>
+      </c>
+      <c r="E88" s="9" t="s">
         <v>873</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>874</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>215</v>
@@ -6691,7 +6693,7 @@
         <v>88</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>640</v>
@@ -6715,10 +6717,10 @@
         <v>89</v>
       </c>
       <c r="D90" s="6" t="s">
+        <v>872</v>
+      </c>
+      <c r="E90" s="9" t="s">
         <v>873</v>
-      </c>
-      <c r="E90" s="9" t="s">
-        <v>874</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>100</v>

--- a/NformTester/NformTester/keywordscripts/TST2753_DisabledForGlobalStatusPolling.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST2753_DisabledForGlobalStatusPolling.xlsx
@@ -1278,7 +1278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7966" uniqueCount="892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7986" uniqueCount="894">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3936,10 +3936,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>$GXT_ChangeData$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>;The goal of this test is to verify the functionality of device status polling by selecting the disabled for Global status polling.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3952,10 +3948,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$GXT_ResetData$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>;Verify that: Nform will not polling the status for that device. The status of the UPS should not change.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3992,19 +3984,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Pass</t>
+    <t>Running Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMPdevice_0$</t>
+    <t>$SNMP_device_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$GXT_0_NAME$</t>
+    <t>$SNMP_GXT_0_NAME$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$GXT_Ip_Port$</t>
+    <t>$SNMP_GXT_Ip_Port$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Trap_GXT_ChangeData$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Trap_GXT_ResetData$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Trap_GXT_ResetData$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alarms</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4220,7 +4228,77 @@
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4525,10 +4603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N90"/>
+  <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4538,8 +4616,9 @@
     <col min="5" max="5" width="20.125" customWidth="1"/>
     <col min="6" max="6" width="23.25" customWidth="1"/>
     <col min="7" max="7" width="14.875" customWidth="1"/>
-    <col min="8" max="8" width="14.75" customWidth="1"/>
+    <col min="8" max="8" width="29.25" customWidth="1"/>
     <col min="9" max="9" width="14.375" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -4703,13 +4782,13 @@
         <v>831</v>
       </c>
       <c r="B6" s="8">
-        <v>41137</v>
+        <v>41450</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -4727,7 +4806,7 @@
         <v>832</v>
       </c>
       <c r="B7" s="3">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
@@ -4748,11 +4827,9 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>888</v>
-      </c>
+        <v>886</v>
+      </c>
+      <c r="B8" s="7"/>
       <c r="C8" s="4">
         <v>7</v>
       </c>
@@ -4770,10 +4847,10 @@
         <v>858</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>859</v>
@@ -4788,11 +4865,9 @@
     </row>
     <row r="9" spans="1:14" ht="15">
       <c r="A9" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>834</v>
-      </c>
+        <v>823</v>
+      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="4">
         <v>8</v>
       </c>
@@ -4811,8 +4886,12 @@
       <c r="N9" s="14"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>834</v>
+      </c>
       <c r="C10" s="4">
         <v>9</v>
       </c>
@@ -4837,10 +4916,8 @@
       <c r="N10" s="14"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="2" t="s">
-        <v>835</v>
-      </c>
-      <c r="B11" s="13"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="4">
         <v>10</v>
       </c>
@@ -4866,7 +4943,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="4">
@@ -4894,7 +4971,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="4">
@@ -4924,7 +5001,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="4">
@@ -4952,7 +5029,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="4">
@@ -4978,14 +5055,14 @@
     </row>
     <row r="16" spans="1:14" ht="15">
       <c r="A16" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="4">
         <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="4"/>
@@ -4999,10 +5076,10 @@
       <c r="N16" s="14"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="2"/>
-      <c r="B17" s="13" t="s">
-        <v>841</v>
-      </c>
+      <c r="A17" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="B17" s="13"/>
       <c r="C17" s="4">
         <v>16</v>
       </c>
@@ -5029,7 +5106,7 @@
     <row r="18" spans="1:14">
       <c r="A18" s="2"/>
       <c r="B18" s="13" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C18" s="4">
         <v>17</v>
@@ -5055,11 +5132,9 @@
       <c r="N18" s="14"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="2" t="s">
-        <v>843</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="B19" s="13" t="s">
-        <v>834</v>
+        <v>842</v>
       </c>
       <c r="C19" s="4">
         <v>18</v>
@@ -5086,9 +5161,11 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="B20" s="13"/>
+        <v>843</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>834</v>
+      </c>
       <c r="C20" s="4">
         <v>19</v>
       </c>
@@ -5120,7 +5197,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="4">
@@ -5147,6 +5224,10 @@
       <c r="N21" s="14"/>
     </row>
     <row r="22" spans="1:14">
+      <c r="A22" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="B22" s="13"/>
       <c r="C22" s="4">
         <v>21</v>
       </c>
@@ -5199,7 +5280,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="4"/>
@@ -5247,10 +5328,10 @@
         <v>19</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="4"/>
@@ -5277,7 +5358,7 @@
         <v>56</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -5435,13 +5516,13 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="9" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="I34" s="9">
         <v>1</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>874</v>
+        <v>890</v>
       </c>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
@@ -5475,7 +5556,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -5499,13 +5580,13 @@
         <v>19</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>863</v>
-      </c>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
@@ -5523,15 +5604,13 @@
         <v>19</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>114</v>
+        <v>893</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>884</v>
-      </c>
-      <c r="I38" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
@@ -5543,34 +5622,42 @@
         <v>38</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>865</v>
+        <v>847</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>866</v>
-      </c>
-      <c r="F39" s="4">
-        <v>2</v>
-      </c>
-      <c r="G39" s="4"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>882</v>
+      </c>
+      <c r="I39" s="9"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="14"/>
     </row>
-    <row r="40" spans="3:14" ht="15">
+    <row r="40" spans="3:14">
       <c r="C40" s="4">
         <v>39</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>870</v>
-      </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="4"/>
+      <c r="D40" s="6" t="s">
+        <v>865</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>866</v>
+      </c>
+      <c r="F40" s="4">
+        <v>2</v>
+      </c>
       <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
+      <c r="H40" s="9"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -5578,22 +5665,16 @@
       <c r="M40" s="4"/>
       <c r="N40" s="14"/>
     </row>
-    <row r="41" spans="3:14">
+    <row r="41" spans="3:14" ht="15">
       <c r="C41" s="4">
         <v>40</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>847</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D41" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -5616,11 +5697,9 @@
         <v>114</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>864</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -5639,12 +5718,14 @@
         <v>19</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H43" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>864</v>
+      </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -5657,17 +5738,19 @@
         <v>43</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>865</v>
+        <v>847</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>866</v>
-      </c>
-      <c r="F44" s="4">
-        <v>1</v>
-      </c>
-      <c r="G44" s="4"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
@@ -5682,19 +5765,15 @@
         <v>865</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>814</v>
-      </c>
-      <c r="F45" s="4"/>
+        <v>866</v>
+      </c>
+      <c r="F45" s="4">
+        <v>1</v>
+      </c>
       <c r="G45" s="4"/>
-      <c r="H45" s="9" t="s">
-        <v>891</v>
-      </c>
-      <c r="I45" s="9">
-        <v>1</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>878</v>
-      </c>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
@@ -5708,56 +5787,58 @@
         <v>865</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>866</v>
-      </c>
-      <c r="F46" s="4">
-        <v>30</v>
-      </c>
+        <v>814</v>
+      </c>
+      <c r="F46" s="4"/>
       <c r="G46" s="4"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="4"/>
+      <c r="H46" s="9" t="s">
+        <v>889</v>
+      </c>
+      <c r="I46" s="9">
+        <v>1</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>891</v>
+      </c>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
       <c r="N46" s="14"/>
     </row>
-    <row r="47" spans="3:14" ht="15">
+    <row r="47" spans="3:14">
       <c r="C47" s="4">
         <v>46</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>879</v>
-      </c>
-      <c r="E47" s="9"/>
-      <c r="F47" s="4"/>
+      <c r="D47" s="6" t="s">
+        <v>865</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>866</v>
+      </c>
+      <c r="F47" s="4">
+        <v>30</v>
+      </c>
       <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="14"/>
     </row>
-    <row r="48" spans="3:14">
+    <row r="48" spans="3:14" ht="15">
       <c r="C48" s="4">
         <v>47</v>
       </c>
-      <c r="D48" s="6" t="s">
-        <v>847</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>863</v>
-      </c>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
+      <c r="D48" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="E48" s="9"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
@@ -5775,15 +5856,13 @@
         <v>19</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>884</v>
-      </c>
-      <c r="I49" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
@@ -5795,35 +5874,45 @@
         <v>49</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>865</v>
+        <v>847</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>866</v>
-      </c>
-      <c r="F50" s="4">
-        <v>2</v>
-      </c>
-      <c r="G50" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>863</v>
+      </c>
       <c r="H50" s="9"/>
-      <c r="I50" s="4"/>
+      <c r="I50" s="9"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="14"/>
     </row>
-    <row r="51" spans="3:14" ht="15">
+    <row r="51" spans="3:14">
       <c r="C51" s="4">
         <v>50</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>880</v>
-      </c>
-      <c r="E51" s="9"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="4"/>
+      <c r="D51" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>882</v>
+      </c>
+      <c r="I51" s="9"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
@@ -5835,17 +5924,15 @@
         <v>51</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>847</v>
+        <v>865</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>866</v>
+      </c>
+      <c r="F52" s="4">
+        <v>2</v>
+      </c>
+      <c r="G52" s="4"/>
       <c r="H52" s="9"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
@@ -5854,22 +5941,16 @@
       <c r="M52" s="4"/>
       <c r="N52" s="14"/>
     </row>
-    <row r="53" spans="3:14">
+    <row r="53" spans="3:14" ht="15">
       <c r="C53" s="4">
         <v>52</v>
       </c>
-      <c r="D53" s="6" t="s">
-        <v>847</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D53" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="E53" s="9"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
       <c r="H53" s="9"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
@@ -5886,10 +5967,10 @@
         <v>847</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>450</v>
+        <v>19</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>2</v>
@@ -5910,23 +5991,17 @@
         <v>847</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>450</v>
+        <v>19</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>499</v>
+        <v>84</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>867</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>868</v>
-      </c>
-      <c r="J55" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H55" s="9"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
@@ -5943,7 +6018,7 @@
         <v>450</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>497</v>
+        <v>454</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>2</v>
@@ -5967,14 +6042,20 @@
         <v>450</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H57" s="9"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>867</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="J57" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
@@ -5991,7 +6072,7 @@
         <v>450</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>17</v>
+        <v>497</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>2</v>
@@ -6004,17 +6085,23 @@
       <c r="M58" s="4"/>
       <c r="N58" s="14"/>
     </row>
-    <row r="59" spans="3:14" ht="15">
+    <row r="59" spans="3:14">
       <c r="C59" s="4">
         <v>58</v>
       </c>
-      <c r="D59" s="5" t="s">
-        <v>862</v>
-      </c>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
+      <c r="D59" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H59" s="9"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
@@ -6030,40 +6117,34 @@
         <v>847</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>19</v>
+        <v>450</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>863</v>
+        <v>2</v>
       </c>
       <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
+      <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
       <c r="N60" s="14"/>
     </row>
-    <row r="61" spans="3:14">
+    <row r="61" spans="3:14" ht="15">
       <c r="C61" s="4">
         <v>60</v>
       </c>
-      <c r="D61" s="6" t="s">
-        <v>847</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
+      <c r="D61" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
@@ -6081,14 +6162,12 @@
         <v>19</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>864</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
@@ -6107,13 +6186,13 @@
         <v>19</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>2</v>
+        <v>863</v>
       </c>
       <c r="H63" s="9"/>
-      <c r="I63" s="4"/>
+      <c r="I63" s="9"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
@@ -6125,36 +6204,46 @@
         <v>63</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>865</v>
+        <v>847</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>866</v>
-      </c>
-      <c r="F64" s="4">
-        <v>2</v>
-      </c>
-      <c r="G64" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H64" s="9"/>
-      <c r="I64" s="4"/>
+      <c r="I64" s="9"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
       <c r="N64" s="14"/>
     </row>
-    <row r="65" spans="3:14" ht="15">
+    <row r="65" spans="3:14">
       <c r="C65" s="4">
         <v>64</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>869</v>
-      </c>
-      <c r="E65" s="9"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
+      <c r="D65" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
@@ -6165,22 +6254,20 @@
         <v>65</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>865</v>
+        <v>847</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>814</v>
-      </c>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="9" t="s">
-        <v>891</v>
-      </c>
-      <c r="I66" s="9">
-        <v>1</v>
-      </c>
-      <c r="J66" s="4" t="s">
-        <v>874</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H66" s="9"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
@@ -6197,11 +6284,11 @@
         <v>866</v>
       </c>
       <c r="F67" s="4">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
+      <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
@@ -6213,14 +6300,14 @@
         <v>67</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>881</v>
-      </c>
-      <c r="E68" s="4"/>
+        <v>869</v>
+      </c>
+      <c r="E68" s="9"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
@@ -6231,20 +6318,22 @@
         <v>68</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>847</v>
+        <v>865</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>863</v>
-      </c>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="4"/>
+        <v>814</v>
+      </c>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="9" t="s">
+        <v>889</v>
+      </c>
+      <c r="I69" s="9">
+        <v>1</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>890</v>
+      </c>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
@@ -6255,20 +6344,16 @@
         <v>69</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>847</v>
+        <v>865</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H70" s="9" t="s">
-        <v>884</v>
-      </c>
+        <v>866</v>
+      </c>
+      <c r="F70" s="4">
+        <v>30</v>
+      </c>
+      <c r="G70" s="4"/>
+      <c r="H70" s="9"/>
       <c r="I70" s="9"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
@@ -6276,21 +6361,17 @@
       <c r="M70" s="4"/>
       <c r="N70" s="14"/>
     </row>
-    <row r="71" spans="3:14">
+    <row r="71" spans="3:14" ht="15">
       <c r="C71" s="4">
         <v>70</v>
       </c>
-      <c r="D71" s="6" t="s">
-        <v>865</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>866</v>
-      </c>
-      <c r="F71" s="4">
-        <v>2</v>
-      </c>
+      <c r="D71" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
       <c r="G71" s="4"/>
-      <c r="H71" s="9"/>
+      <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
@@ -6298,16 +6379,22 @@
       <c r="M71" s="4"/>
       <c r="N71" s="14"/>
     </row>
-    <row r="72" spans="3:14" ht="15">
+    <row r="72" spans="3:14">
       <c r="C72" s="4">
         <v>71</v>
       </c>
-      <c r="D72" s="5" t="s">
-        <v>870</v>
-      </c>
-      <c r="E72" s="9"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
+      <c r="D72" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
@@ -6327,13 +6414,13 @@
         <v>19</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
+        <v>863</v>
+      </c>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
@@ -6354,12 +6441,12 @@
         <v>114</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>864</v>
-      </c>
-      <c r="I74" s="4"/>
+        <v>60</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>882</v>
+      </c>
+      <c r="I74" s="9"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
@@ -6371,18 +6458,16 @@
         <v>74</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>847</v>
+        <v>865</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H75" s="4"/>
+        <v>866</v>
+      </c>
+      <c r="F75" s="4">
+        <v>2</v>
+      </c>
+      <c r="G75" s="4"/>
+      <c r="H75" s="9"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
@@ -6390,22 +6475,18 @@
       <c r="M75" s="4"/>
       <c r="N75" s="14"/>
     </row>
-    <row r="76" spans="3:14">
+    <row r="76" spans="3:14" ht="15">
       <c r="C76" s="4">
         <v>75</v>
       </c>
-      <c r="D76" s="6" t="s">
-        <v>865</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>866</v>
-      </c>
-      <c r="F76" s="4">
-        <v>1</v>
-      </c>
+      <c r="D76" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="E76" s="9"/>
+      <c r="F76" s="4"/>
       <c r="G76" s="4"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
@@ -6417,22 +6498,20 @@
         <v>76</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>865</v>
+        <v>847</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>814</v>
-      </c>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="9" t="s">
-        <v>891</v>
-      </c>
-      <c r="I77" s="9">
-        <v>1</v>
-      </c>
-      <c r="J77" s="4" t="s">
-        <v>878</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
       <c r="M77" s="4"/>
@@ -6443,33 +6522,43 @@
         <v>77</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>865</v>
+        <v>847</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>866</v>
-      </c>
-      <c r="F78" s="4">
-        <v>30</v>
-      </c>
-      <c r="G78" s="4"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="I78" s="4"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
       <c r="M78" s="4"/>
       <c r="N78" s="14"/>
     </row>
-    <row r="79" spans="3:14" ht="15">
+    <row r="79" spans="3:14">
       <c r="C79" s="4">
         <v>78</v>
       </c>
-      <c r="D79" s="5" t="s">
-        <v>882</v>
-      </c>
-      <c r="E79" s="9"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
+      <c r="D79" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
@@ -6483,17 +6572,15 @@
         <v>79</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>847</v>
+        <v>865</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>863</v>
-      </c>
+        <v>866</v>
+      </c>
+      <c r="F80" s="4">
+        <v>1</v>
+      </c>
+      <c r="G80" s="4"/>
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
       <c r="J80" s="4"/>
@@ -6507,22 +6594,22 @@
         <v>80</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>847</v>
+        <v>865</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>60</v>
-      </c>
+        <v>814</v>
+      </c>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
       <c r="H81" s="9" t="s">
-        <v>885</v>
-      </c>
-      <c r="I81" s="9"/>
-      <c r="J81" s="4"/>
+        <v>889</v>
+      </c>
+      <c r="I81" s="9">
+        <v>1</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>892</v>
+      </c>
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
       <c r="M81" s="4"/>
@@ -6539,11 +6626,11 @@
         <v>866</v>
       </c>
       <c r="F82" s="4">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="9"/>
-      <c r="I82" s="4"/>
+      <c r="I82" s="9"/>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
       <c r="L82" s="4"/>
@@ -6555,12 +6642,12 @@
         <v>82</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>871</v>
+        <v>880</v>
       </c>
       <c r="E83" s="9"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
-      <c r="H83" s="9"/>
+      <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
@@ -6573,16 +6660,18 @@
         <v>83</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>811</v>
-      </c>
-      <c r="F84" s="4">
-        <v>2</v>
-      </c>
-      <c r="G84" s="4"/>
-      <c r="H84" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
@@ -6601,10 +6690,10 @@
         <v>19</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>2</v>
+        <v>863</v>
       </c>
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
@@ -6625,12 +6714,14 @@
         <v>19</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H86" s="9"/>
+        <v>60</v>
+      </c>
+      <c r="H86" s="9" t="s">
+        <v>883</v>
+      </c>
       <c r="I86" s="9"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
@@ -6643,20 +6734,16 @@
         <v>86</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>873</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>633</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H87" s="4" t="s">
-        <v>864</v>
-      </c>
+        <v>866</v>
+      </c>
+      <c r="F87" s="4">
+        <v>2</v>
+      </c>
+      <c r="G87" s="4"/>
+      <c r="H87" s="9"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
@@ -6664,23 +6751,17 @@
       <c r="M87" s="4"/>
       <c r="N87" s="14"/>
     </row>
-    <row r="88" spans="3:14" ht="14.25">
+    <row r="88" spans="3:14" ht="15">
       <c r="C88" s="4">
         <v>87</v>
       </c>
-      <c r="D88" s="6" t="s">
-        <v>872</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>873</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H88" s="15"/>
+      <c r="D88" s="5" t="s">
+        <v>871</v>
+      </c>
+      <c r="E88" s="9"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="9"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
@@ -6693,17 +6774,15 @@
         <v>88</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>872</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>640</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>846</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>811</v>
+      </c>
+      <c r="F89" s="4">
+        <v>2</v>
+      </c>
+      <c r="G89" s="4"/>
       <c r="H89" s="9"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
@@ -6717,13 +6796,13 @@
         <v>89</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>872</v>
+        <v>847</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>873</v>
+        <v>19</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>2</v>
@@ -6736,33 +6815,155 @@
       <c r="M90" s="4"/>
       <c r="N90" s="14"/>
     </row>
+    <row r="91" spans="3:14">
+      <c r="C91" s="4">
+        <v>90</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="14"/>
+    </row>
+    <row r="92" spans="3:14">
+      <c r="C92" s="4">
+        <v>91</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>872</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>873</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="14"/>
+    </row>
+    <row r="93" spans="3:14" ht="14.25">
+      <c r="C93" s="4">
+        <v>92</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>872</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>873</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H93" s="15"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="14"/>
+    </row>
+    <row r="94" spans="3:14">
+      <c r="C94" s="4">
+        <v>93</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>872</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H94" s="9"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="14"/>
+    </row>
+    <row r="95" spans="3:14">
+      <c r="C95" s="4">
+        <v>94</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>872</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>873</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N90">
-    <cfRule type="cellIs" dxfId="1" priority="5" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N2:N95">
+    <cfRule type="cellIs" dxfId="3" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F83:F90 F45 F33:F34 F40:F43 F47:F49 F65:F66 F77 F72:F75 F52:F63 F2:F14 F36:F38 F68:F70 F79:F81 F17:F31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F88:F95 F46 F33:F34 F41:F44 F36:F39 F68:F69 F81 F76:F79 F48:F51 F2:F14 F17:F31 F54:F66 F71:F74 F83:F86">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G86 G88:G90">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G93:G95 G2:G91">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D85:D86 D3:D4 D10:D15 D8 D17:D23 D25:D32 D73:D78 D60:D64 D69:D71 D41:D46 D34:D35 D48:D50 D37:D39 D66:D67 D52:D58 D80:D82">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D90:D91 D77:D82 D62:D67 D72:D75 D42:D47 D49:D52 D69:D70 D54:D60 D84:D87 D37:D40 D34:D35 D25:D32 D17:D23 D8 D10:D15 D3:D4">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E90">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E95">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="H36" r:id="rId1" display="http://10.130.112.3"/>
-    <hyperlink ref="H68" r:id="rId2" display="http://10.130.112.3"/>
+    <hyperlink ref="H71" r:id="rId2" display="http://10.130.112.3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
